--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_2_23.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_2_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1495934.717539842</v>
+        <v>1494047.136023441</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>286.3176337598602</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>310.317429597101</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -826,10 +826,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>72.65793777463476</v>
       </c>
       <c r="Y4" t="n">
-        <v>7.634490799661691</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,13 +908,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>2.945562993021158</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>26.99995778729098</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>59.72683757586846</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>194.0270836661628</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1145,13 +1145,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>173.1041038732777</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,19 +1178,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481165</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>20.33759325228174</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>30.60408762095435</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491427</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>14.19510348422598</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>103.3669375709922</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,7 +1537,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>122.9020511713933</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,13 +1576,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G14" t="n">
         <v>411.9645167896915</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>37.91987451653029</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>197.1029817676902</v>
       </c>
     </row>
     <row r="17">
@@ -1895,13 +1895,13 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2002,13 +2002,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>22.10100804872264</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>46.48100753331137</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2017,10 +2017,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>130.3289351974896</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2254,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,13 +2287,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.7374713145462</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2479,10 +2479,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2491,10 +2491,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2536,13 +2536,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>163.1145054001671</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>110.8253895788004</v>
       </c>
     </row>
     <row r="26">
@@ -2609,7 +2609,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2761,10 +2761,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>122.6519788371594</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583893</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985774</v>
@@ -2773,13 +2773,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>204.1291651532046</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2807,7 +2807,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
         <v>81.77913505274074</v>
@@ -2950,25 +2950,25 @@
         <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700708</v>
+        <v>112.0435644700707</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>93.41221638965526</v>
       </c>
       <c r="E31" t="n">
-        <v>91.2307060180121</v>
+        <v>91.23070601801207</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437417</v>
+        <v>90.21779139437415</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897906</v>
+        <v>71.27679771160211</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571491</v>
+        <v>55.21598883571488</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523572</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>39.19111600688869</v>
+        <v>142.7175533550462</v>
       </c>
       <c r="T31" t="n">
         <v>166.3443044298322</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700203</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>196.9343866952709</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373698</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463135</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898722</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857175</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692856</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329064</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G37" t="n">
         <v>98.36167833373698</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789552</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463137</v>
+        <v>42.28735533463135</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415218</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,22 +3661,22 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898722</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857175</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692856</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329064</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373698</v>
       </c>
       <c r="H40" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789552</v>
       </c>
       <c r="I40" t="n">
         <v>42.28735533463136</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3916,7 +3916,7 @@
         <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463132</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4153,7 +4153,7 @@
         <v>80.78193823789547</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1154.32125595057</v>
+        <v>433.0775852377275</v>
       </c>
       <c r="C2" t="n">
-        <v>785.3587390101584</v>
+        <v>433.0775852377275</v>
       </c>
       <c r="D2" t="n">
-        <v>785.3587390101584</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="E2" t="n">
-        <v>785.3587390101584</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
         <v>53.94298182036445</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990285</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>2224.752638628377</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V2" t="n">
-        <v>1893.689751284806</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W2" t="n">
-        <v>1540.921096014692</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X2" t="n">
-        <v>1540.921096014692</v>
+        <v>1112.426648284105</v>
       </c>
       <c r="Y2" t="n">
-        <v>1540.921096014692</v>
+        <v>722.2873163082934</v>
       </c>
     </row>
     <row r="3">
@@ -4383,34 +4383,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
         <v>670.8219208598708</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>538.7689125078493</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C4" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="Y4" t="n">
-        <v>720.4173773380891</v>
+        <v>404.5276295785111</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1233.603060210037</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="C5" t="n">
-        <v>864.6405432696254</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696254</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2694.173774863656</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2694.173774863656</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2694.173774863656</v>
+        <v>2438.670229229258</v>
       </c>
       <c r="U5" t="n">
-        <v>2694.173774863656</v>
+        <v>2438.670229229258</v>
       </c>
       <c r="V5" t="n">
-        <v>2363.110887520085</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="W5" t="n">
-        <v>2010.34223224997</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="X5" t="n">
-        <v>2010.34223224997</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="Y5" t="n">
-        <v>1620.202900274159</v>
+        <v>2107.607341885688</v>
       </c>
     </row>
     <row r="6">
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>667.7988452409105</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>955.5060781830496</v>
+        <v>962.9693282917581</v>
       </c>
       <c r="C8" t="n">
-        <v>586.5435612426379</v>
+        <v>594.0068113513464</v>
       </c>
       <c r="D8" t="n">
-        <v>228.2778626358873</v>
+        <v>235.7411127445959</v>
       </c>
       <c r="E8" t="n">
-        <v>228.2778626358873</v>
+        <v>235.7411127445959</v>
       </c>
       <c r="F8" t="n">
-        <v>221.3323618866839</v>
+        <v>228.7956119953924</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4817,37 +4817,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2621.577378061563</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2402.942711033626</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2402.942711033626</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2071.879823690055</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W8" t="n">
-        <v>1719.111168419941</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="X8" t="n">
-        <v>1345.645410158861</v>
+        <v>1739.708500331692</v>
       </c>
       <c r="Y8" t="n">
-        <v>955.5060781830496</v>
+        <v>1349.56916835588</v>
       </c>
     </row>
     <row r="9">
@@ -4872,34 +4872,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571351</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036447</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036447</v>
+        <v>529.7758821321495</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036447</v>
+        <v>379.6592427198137</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036447</v>
+        <v>231.7461491374206</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036447</v>
+        <v>84.85620163951026</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
         <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600566</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600566</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600566</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600566</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600566</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600566</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W10" t="n">
-        <v>684.3735766921516</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X10" t="n">
-        <v>456.3840257941342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="Y10" t="n">
-        <v>235.5914466506042</v>
+        <v>698.7120650600564</v>
       </c>
     </row>
     <row r="11">
@@ -5027,46 +5027,46 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155894</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
@@ -5115,22 +5115,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>261.8048459311032</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>410.874530133163</v>
       </c>
       <c r="L12" t="n">
-        <v>901.674922584592</v>
+        <v>1024.771599890052</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.043068977054</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N12" t="n">
-        <v>1999.905696641086</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O12" t="n">
         <v>2331.418122136705</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>799.8610847926846</v>
+        <v>499.6578725065219</v>
       </c>
       <c r="C13" t="n">
-        <v>630.9249018647777</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D13" t="n">
-        <v>480.8082624524419</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E13" t="n">
-        <v>332.8951688700488</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5224,25 +5224,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557902</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="W13" t="n">
-        <v>1209.499100520942</v>
+        <v>720.4504516500521</v>
       </c>
       <c r="X13" t="n">
-        <v>981.5095496229243</v>
+        <v>720.4504516500521</v>
       </c>
       <c r="Y13" t="n">
-        <v>981.5095496229243</v>
+        <v>499.6578725065219</v>
       </c>
     </row>
     <row r="14">
@@ -5258,46 +5258,46 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
@@ -5355,22 +5355,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341674</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2208.321444831246</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>734.8632439327646</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="C16" t="n">
-        <v>565.9270610048577</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D16" t="n">
-        <v>415.8104215925219</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E16" t="n">
-        <v>415.8104215925219</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F16" t="n">
-        <v>415.8104215925219</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123425</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5434,52 +5434,52 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557903</v>
+        <v>964.1357418247853</v>
       </c>
       <c r="U16" t="n">
-        <v>1460.613367005852</v>
+        <v>964.1357418247853</v>
       </c>
       <c r="V16" t="n">
-        <v>1205.928878799965</v>
+        <v>964.1357418247853</v>
       </c>
       <c r="W16" t="n">
-        <v>916.5117087630043</v>
+        <v>674.7185717878248</v>
       </c>
       <c r="X16" t="n">
-        <v>916.5117087630043</v>
+        <v>446.7290208898074</v>
       </c>
       <c r="Y16" t="n">
-        <v>916.5117087630043</v>
+        <v>247.6350999123426</v>
       </c>
     </row>
     <row r="17">
@@ -5510,37 +5510,37 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
@@ -5589,25 +5589,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>1099.417155020476</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M18" t="n">
-        <v>1406.737288300438</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N18" t="n">
-        <v>1736.599915964471</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O18" t="n">
-        <v>2016.139981183168</v>
+        <v>2208.321444831246</v>
       </c>
       <c r="P18" t="n">
         <v>2536.440602918915</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>549.6692635248399</v>
+        <v>462.4595652127117</v>
       </c>
       <c r="C19" t="n">
-        <v>527.3450129705744</v>
+        <v>462.4595652127117</v>
       </c>
       <c r="D19" t="n">
-        <v>527.3450129705744</v>
+        <v>312.342925800376</v>
       </c>
       <c r="E19" t="n">
-        <v>527.3450129705744</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F19" t="n">
-        <v>527.3450129705744</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688074</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U19" t="n">
-        <v>986.0022165609665</v>
+        <v>898.7925182488383</v>
       </c>
       <c r="V19" t="n">
-        <v>731.3177283550797</v>
+        <v>644.1080300429514</v>
       </c>
       <c r="W19" t="n">
-        <v>731.3177283550797</v>
+        <v>644.1080300429514</v>
       </c>
       <c r="X19" t="n">
-        <v>731.3177283550797</v>
+        <v>644.1080300429514</v>
       </c>
       <c r="Y19" t="n">
-        <v>731.3177283550797</v>
+        <v>644.1080300429514</v>
       </c>
     </row>
     <row r="20">
@@ -5732,46 +5732,46 @@
         <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014293</v>
@@ -5817,34 +5817,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M21" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>414.0663679705859</v>
+        <v>527.193582583109</v>
       </c>
       <c r="C22" t="n">
-        <v>245.130185042679</v>
+        <v>527.193582583109</v>
       </c>
       <c r="D22" t="n">
-        <v>245.130185042679</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241959</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688074</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5935,25 +5935,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1299.18145104826</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1299.18145104826</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U22" t="n">
-        <v>1299.18145104826</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V22" t="n">
-        <v>1044.496962842373</v>
+        <v>755.1831334811263</v>
       </c>
       <c r="W22" t="n">
-        <v>1044.496962842373</v>
+        <v>755.1831334811263</v>
       </c>
       <c r="X22" t="n">
-        <v>816.5074119443558</v>
+        <v>527.193582583109</v>
       </c>
       <c r="Y22" t="n">
-        <v>595.7148328008257</v>
+        <v>527.193582583109</v>
       </c>
     </row>
     <row r="23">
@@ -5966,22 +5966,22 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
@@ -5990,22 +5990,22 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6020,16 +6020,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6069,19 +6069,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>966.6932390011339</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1453.977845975555</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>879.5496456007324</v>
+        <v>842.8697743566707</v>
       </c>
       <c r="C25" t="n">
-        <v>710.6134626728256</v>
+        <v>673.9335914287639</v>
       </c>
       <c r="D25" t="n">
-        <v>710.6134626728256</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="E25" t="n">
-        <v>562.7003690904324</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="F25" t="n">
-        <v>415.8104215925221</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123426</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6154,7 +6154,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,7 +6163,7 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
         <v>1498.916270557903</v>
@@ -6172,25 +6172,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T25" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U25" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V25" t="n">
-        <v>1044.311772267568</v>
+        <v>1244.231782352016</v>
       </c>
       <c r="W25" t="n">
-        <v>1044.311772267568</v>
+        <v>954.814612315055</v>
       </c>
       <c r="X25" t="n">
-        <v>879.5496456007324</v>
+        <v>954.814612315055</v>
       </c>
       <c r="Y25" t="n">
-        <v>879.5496456007324</v>
+        <v>842.8697743566707</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
@@ -6224,13 +6224,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6251,25 +6251,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6321,10 +6321,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028593</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028593</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028593</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028593</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
         <v>97.21709146028587</v>
@@ -6397,7 +6397,7 @@
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P28" t="n">
         <v>1460.082827585746</v>
@@ -6409,25 +6409,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473454</v>
+        <v>1375.0253828436</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1151.239967633105</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765181</v>
+        <v>862.1113288466636</v>
       </c>
       <c r="V28" t="n">
-        <v>531.3977182706311</v>
+        <v>607.4268406407768</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583035</v>
+        <v>318.0096706038161</v>
       </c>
       <c r="X28" t="n">
-        <v>97.2170914602861</v>
+        <v>318.0096706038161</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028593</v>
+        <v>97.21709146028591</v>
       </c>
     </row>
     <row r="29">
@@ -6437,43 +6437,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6482,31 +6482,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6537,7 +6537,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
@@ -6558,10 +6558,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>544.1045888917515</v>
+        <v>728.2144416160934</v>
       </c>
       <c r="C31" t="n">
-        <v>430.9292712452154</v>
+        <v>615.0391239695574</v>
       </c>
       <c r="D31" t="n">
-        <v>430.9292712452154</v>
+        <v>520.6833498385924</v>
       </c>
       <c r="E31" t="n">
-        <v>338.7770429441932</v>
+        <v>428.5311215375702</v>
       </c>
       <c r="F31" t="n">
-        <v>247.6479607276535</v>
+        <v>337.4020393210307</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276535</v>
+        <v>224.9875829222221</v>
       </c>
       <c r="H31" t="n">
         <v>152.9908175569676</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>164.2510079864672</v>
@@ -6628,43 +6628,43 @@
         <v>671.4509053667509</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962053</v>
+        <v>997.668872196205</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286025</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353693</v>
+        <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
         <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056075</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899271</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="S31" t="n">
-        <v>1841.224839033727</v>
+        <v>1791.966918252997</v>
       </c>
       <c r="T31" t="n">
-        <v>1673.200289104603</v>
+        <v>1623.942368323874</v>
       </c>
       <c r="U31" t="n">
-        <v>1439.832515599532</v>
+        <v>1623.942368323874</v>
       </c>
       <c r="V31" t="n">
-        <v>1240.908892675016</v>
+        <v>1425.018745399358</v>
       </c>
       <c r="W31" t="n">
-        <v>1007.252587919426</v>
+        <v>1191.362440643768</v>
       </c>
       <c r="X31" t="n">
-        <v>835.0239023027798</v>
+        <v>1019.133755027122</v>
       </c>
       <c r="Y31" t="n">
-        <v>669.9921884406205</v>
+        <v>854.1020411649623</v>
       </c>
     </row>
     <row r="32">
@@ -6674,37 +6674,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6713,37 +6713,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6774,28 +6774,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C34" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F34" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
@@ -6862,7 +6862,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649692</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6889,19 +6889,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="35">
@@ -6923,16 +6923,16 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
@@ -6950,16 +6950,16 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -7011,22 +7011,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341674</v>
+        <v>563.7235867775516</v>
       </c>
       <c r="M36" t="n">
-        <v>1302.911127126629</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N36" t="n">
-        <v>2051.878056918008</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O36" t="n">
         <v>2331.418122136705</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108326</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D37" t="n">
-        <v>478.047598850672</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103124</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
@@ -7099,7 +7099,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7117,7 +7117,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
         <v>1865.165908942116</v>
@@ -7126,19 +7126,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7163,19 +7163,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
@@ -7187,37 +7187,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7248,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M39" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7318,13 +7318,13 @@
         <v>398.9545963083202</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504509</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103126</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982968</v>
+        <v>139.9315917982969</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028587</v>
@@ -7333,10 +7333,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254954</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7345,19 +7345,19 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T40" t="n">
         <v>1710.200584771663</v>
@@ -7375,7 +7375,7 @@
         <v>924.2611010045205</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
@@ -7424,37 +7424,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M42" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,61 +7543,61 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229665</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506719</v>
+        <v>478.0475988506725</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083199</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504507</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525398</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254954</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M43" t="n">
-        <v>1048.866260860495</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N43" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.186490350128</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P43" t="n">
-        <v>1932.236826184155</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942115</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T43" t="n">
-        <v>1710.200584771662</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
         <v>1489.892037025262</v>
@@ -7606,13 +7606,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="44">
@@ -7625,28 +7625,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514085</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7734,7 +7734,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7743,10 +7743,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229671</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F46" t="n">
         <v>320.884739850451</v>
@@ -7801,7 +7801,7 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>177.05035515254</v>
@@ -7810,7 +7810,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7849,7 +7849,7 @@
         <v>924.2611010045206</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
   </sheetData>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627885</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270189</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719081</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.658803395178</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>124.340078086323</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8775,13 +8775,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>52.49733361305249</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9009,25 +9009,25 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>124.3400780863232</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928333</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
@@ -9243,10 +9243,10 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>306.114737013996</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9255,10 +9255,10 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>124.3400780863231</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9656,7 +9656,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9717,7 +9717,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9726,13 +9726,13 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>159.0121003135238</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10425,31 +10425,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>409.7003683229574</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298197</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10668,16 +10668,16 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>29.47535963978191</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -10686,7 +10686,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,31 +10899,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>63.87988352763565</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,7 +23425,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>22.51899685153795</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23434,7 +23434,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,13 +23464,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23665,7 +23665,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>248.3174778820471</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>21.48167158440455</v>
       </c>
     </row>
     <row r="17">
@@ -23890,13 +23890,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>145.1458130499052</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>99.9529551132578</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>18.28653782072278</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24142,7 +24142,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24175,13 +24175,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0.1833386690570364</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24367,10 +24367,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -24424,13 +24424,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>62.59514998887006</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>107.7592637732944</v>
       </c>
     </row>
     <row r="26">
@@ -24649,7 +24649,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>75.26883114644393</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24661,13 +24661,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>82.39383318338639</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965528</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24850,10 +24850,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348205</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>22.43377402737691</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24883,16 +24883,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.76109577523569</v>
       </c>
       <c r="S31" t="n">
-        <v>103.5264373481575</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>933176.1663144792</v>
+        <v>933176.1663144793</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>933176.1663144792</v>
+        <v>933176.1663144793</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>933176.1663144792</v>
+        <v>933176.1663144794</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>970289.8986922483</v>
+        <v>970289.8986922484</v>
       </c>
     </row>
     <row r="12">
@@ -26314,25 +26314,25 @@
         <v>472099.017671963</v>
       </c>
       <c r="C2" t="n">
-        <v>472099.0176719629</v>
+        <v>472099.0176719631</v>
       </c>
       <c r="D2" t="n">
         <v>472099.017671963</v>
       </c>
       <c r="E2" t="n">
-        <v>449683.418698365</v>
+        <v>449683.4186983652</v>
       </c>
       <c r="F2" t="n">
-        <v>449683.418698365</v>
+        <v>449683.4186983651</v>
       </c>
       <c r="G2" t="n">
+        <v>449683.4186983652</v>
+      </c>
+      <c r="H2" t="n">
         <v>449683.4186983653</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>449683.4186983652</v>
-      </c>
-      <c r="I2" t="n">
-        <v>449683.4186983653</v>
       </c>
       <c r="J2" t="n">
         <v>449683.4186983652</v>
@@ -26341,19 +26341,19 @@
         <v>467845.4579470613</v>
       </c>
       <c r="L2" t="n">
-        <v>472099.0176719626</v>
+        <v>472099.0176719627</v>
       </c>
       <c r="M2" t="n">
         <v>472099.0176719627</v>
       </c>
       <c r="N2" t="n">
-        <v>472099.0176719627</v>
+        <v>472099.0176719629</v>
       </c>
       <c r="O2" t="n">
         <v>472099.0176719627</v>
       </c>
       <c r="P2" t="n">
-        <v>472099.0176719629</v>
+        <v>472099.0176719628</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26369,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.6053028457</v>
+        <v>44162.60530284571</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086688</v>
+        <v>10342.90680086682</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.6053028457</v>
+        <v>44162.60530284556</v>
       </c>
     </row>
     <row r="4">
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>156774.9582512226</v>
+        <v>156774.9582512227</v>
       </c>
       <c r="C4" t="n">
         <v>156774.9582512226</v>
@@ -26427,31 +26427,31 @@
         <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
+        <v>15045.66962143911</v>
+      </c>
+      <c r="G4" t="n">
+        <v>15045.66962143912</v>
+      </c>
+      <c r="H4" t="n">
         <v>15045.6696214391</v>
-      </c>
-      <c r="G4" t="n">
-        <v>15045.66962143905</v>
-      </c>
-      <c r="H4" t="n">
-        <v>15045.66962143907</v>
       </c>
       <c r="I4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143911</v>
       </c>
       <c r="K4" t="n">
-        <v>33210.29213563561</v>
+        <v>33210.29213563564</v>
       </c>
       <c r="L4" t="n">
-        <v>37464.45686275959</v>
+        <v>37464.45686275954</v>
       </c>
       <c r="M4" t="n">
-        <v>37464.45686275956</v>
+        <v>37464.45686275957</v>
       </c>
       <c r="N4" t="n">
-        <v>37464.45686275957</v>
+        <v>37464.45686275954</v>
       </c>
       <c r="O4" t="n">
         <v>37464.45686275957</v>
@@ -26473,13 +26473,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
@@ -26494,19 +26494,19 @@
         <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022281</v>
+        <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
         <v>97715.10582002539</v>
@@ -26522,46 +26522,46 @@
         <v>-357502.8978572135</v>
       </c>
       <c r="C6" t="n">
-        <v>232464.9813573308</v>
+        <v>232464.981357331</v>
       </c>
       <c r="D6" t="n">
-        <v>232464.9813573307</v>
+        <v>232464.9813573309</v>
       </c>
       <c r="E6" t="n">
-        <v>-182509.6133486867</v>
+        <v>-182607.0724746587</v>
       </c>
       <c r="F6" t="n">
-        <v>342650.4231282093</v>
+        <v>342552.9640022372</v>
       </c>
       <c r="G6" t="n">
-        <v>342650.4231282095</v>
+        <v>342552.9640022372</v>
       </c>
       <c r="H6" t="n">
-        <v>342650.4231282095</v>
+        <v>342552.9640022374</v>
       </c>
       <c r="I6" t="n">
-        <v>342650.4231282097</v>
+        <v>342552.9640022372</v>
       </c>
       <c r="J6" t="n">
-        <v>166227.2039356166</v>
+        <v>166129.7448096444</v>
       </c>
       <c r="K6" t="n">
-        <v>293844.3519783571</v>
+        <v>293825.8582404229</v>
       </c>
       <c r="L6" t="n">
-        <v>326576.5481883108</v>
+        <v>326576.5481883109</v>
       </c>
       <c r="M6" t="n">
-        <v>202118.4397553407</v>
+        <v>202118.4397553406</v>
       </c>
       <c r="N6" t="n">
-        <v>336919.4549891778</v>
+        <v>336919.4549891779</v>
       </c>
       <c r="O6" t="n">
         <v>336919.4549891778</v>
       </c>
       <c r="P6" t="n">
-        <v>292756.8496863322</v>
+        <v>292756.8496863323</v>
       </c>
     </row>
   </sheetData>
@@ -26710,16 +26710,16 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855707</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M2" t="n">
+        <v>68.13189012964062</v>
+      </c>
+      <c r="N2" t="n">
         <v>68.13189012964061</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964062</v>
       </c>
       <c r="O2" t="n">
         <v>68.13189012964065</v>
@@ -26741,19 +26741,19 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541003</v>
@@ -26765,19 +26765,19 @@
         <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="L2" t="n">
-        <v>12.9286335010836</v>
+        <v>12.92863350108352</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855714</v>
       </c>
     </row>
     <row r="3">
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855714</v>
       </c>
     </row>
     <row r="3">
@@ -27376,22 +27376,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>96.41620790362037</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>96.55861614461048</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27546,10 +27546,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27600,10 +27600,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>153.0517176144024</v>
       </c>
       <c r="Y4" t="n">
-        <v>210.9501625524331</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,13 +27628,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>51.53283958179055</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>189.4483625703668</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27676,13 +27676,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>120.1051426060688</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27834,13 +27834,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>92.49591467042822</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>240.6800661475173</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.0781195566898</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>136.7057146380966</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853697</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28071,13 +28071,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>272.327894852365</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28336,7 +28336,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28615,13 +28615,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-5.470219025909084e-13</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -28819,7 +28819,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>-6.252776074688882e-13</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -29329,7 +29329,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>1.989519660128281e-13</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.2032566285571</v>
       </c>
     </row>
     <row r="32">
@@ -29767,7 +29767,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="38">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
     </row>
     <row r="41">
@@ -31516,10 +31516,10 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31528,34 +31528,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890691</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31692,28 +31692,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32464,7 +32464,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32473,31 +32473,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32546,31 +32546,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,7 +32637,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32649,19 +32649,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33412,7 +33412,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33421,31 +33421,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33494,31 +33494,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,7 +33585,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33597,19 +33597,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33649,7 +33649,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33658,31 +33658,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33731,31 +33731,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,7 +33822,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33834,19 +33834,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33886,7 +33886,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33895,31 +33895,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33968,31 +33968,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,7 +34059,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34071,19 +34071,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34123,7 +34123,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34132,31 +34132,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34205,31 +34205,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34284,7 +34284,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,7 +34296,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
@@ -34308,19 +34308,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,13 +34775,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>365.284463230715</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -35176,22 +35176,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,25 +35252,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245899</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,10 +35331,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35343,10 +35343,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>166.2502570412296</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
@@ -35495,19 +35495,19 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>334.8610358541607</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>331.4334930178478</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35890,7 +35890,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221125</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35963,10 +35963,10 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>555.3724419700203</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504663</v>
@@ -35975,10 +35975,10 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>331.4334930178478</v>
       </c>
       <c r="Q18" t="n">
         <v>88.01303278507413</v>
@@ -36124,25 +36124,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,13 +36200,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980129</v>
@@ -36215,7 +36215,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36276,19 +36276,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36297,7 +36297,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36376,7 +36376,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
         <v>59.8253897034981</v>
@@ -36437,7 +36437,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
@@ -36446,13 +36446,13 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>492.2066737115368</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K26" t="n">
         <v>528.6897561303331</v>
@@ -36689,13 +36689,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556547</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299105</v>
@@ -36768,10 +36768,10 @@
         <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36838,7 +36838,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36926,13 +36926,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.7110267941226</v>
+        <v>67.71102679412263</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584676</v>
+        <v>206.9056851584677</v>
       </c>
       <c r="L31" t="n">
         <v>305.4174435084856</v>
@@ -37008,7 +37008,7 @@
         <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043183</v>
+        <v>94.42895660043186</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734238</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37242,7 +37242,7 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37309,22 +37309,22 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
         <v>59.82538970349766</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958063</v>
       </c>
       <c r="M36" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520614</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,7 +37476,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
         <v>246.5154907414414</v>
@@ -37546,25 +37546,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M39" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37783,25 +37783,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,13 +37859,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980129</v>
@@ -37874,13 +37874,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37953,7 +37953,7 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38017,7 +38017,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38102,22 +38102,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,10 +38184,10 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
         <v>246.5154907414414</v>
